--- a/EsquemaFirebase.xlsx
+++ b/EsquemaFirebase.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Documents\TFG\Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77CC0F1-91C6-4191-AE34-7755D3ED528A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8D9023-0A33-4B1C-A4C2-394BF9638BB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C9EC3437-12CA-4B8C-9424-1E0DBC060D75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C9EC3437-12CA-4B8C-9424-1E0DBC060D75}"/>
   </bookViews>
   <sheets>
     <sheet name="ColeccionUsuarios" sheetId="1" r:id="rId1"/>
     <sheet name="ColeccionComercios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2401,7 +2402,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
-            <a:t> ID_Pedido</a:t>
+            <a:t> ID_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" u="sng" baseline="0"/>
+            <a:t>Pedido</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3037,15 +3042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3060,7 +3065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="6543675"/>
+          <a:off x="6115050" y="9277350"/>
           <a:ext cx="1343025" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3101,14 +3106,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3123,7 +3128,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="4886325"/>
+          <a:off x="6096000" y="5695950"/>
           <a:ext cx="1343025" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3842,15 +3847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3865,7 +3870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8391526" y="5162550"/>
+          <a:off x="8458201" y="7458075"/>
           <a:ext cx="1724024" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3915,14 +3920,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3940,8 +3945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="5219700"/>
-          <a:ext cx="952501" cy="381000"/>
+          <a:off x="7439025" y="6029325"/>
+          <a:ext cx="1019176" cy="1866900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -3973,9 +3978,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="837793" cy="609013"/>
     <xdr:sp macro="" textlink="">
@@ -3991,7 +3996,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10658475" y="4848225"/>
+          <a:off x="10477500" y="7067550"/>
           <a:ext cx="837793" cy="609013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4055,15 +4060,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9232</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4081,8 +4086,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10115550" y="5152732"/>
-          <a:ext cx="542925" cy="447968"/>
+          <a:off x="10182225" y="7372057"/>
+          <a:ext cx="295275" cy="524168"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4121,8 +4126,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4141,7 +4146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5534025" y="1852613"/>
-          <a:ext cx="561975" cy="3367087"/>
+          <a:ext cx="561975" cy="4176712"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4173,15 +4178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4196,7 +4201,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="6896100"/>
+          <a:off x="8296275" y="9696450"/>
           <a:ext cx="1724024" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4251,9 +4256,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4272,7 +4277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5534025" y="1852613"/>
-          <a:ext cx="561975" cy="5024437"/>
+          <a:ext cx="581025" cy="7758112"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4304,15 +4309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4330,8 +4335,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="6877050"/>
-          <a:ext cx="923925" cy="457200"/>
+          <a:off x="7458075" y="9610725"/>
+          <a:ext cx="838200" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4363,9 +4368,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1226811" cy="1470146"/>
     <xdr:sp macro="" textlink="">
@@ -4381,7 +4386,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10668000" y="5905500"/>
+          <a:off x="10677525" y="8591550"/>
           <a:ext cx="1226811" cy="1470146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4475,15 +4480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>163573</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>182623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4501,8 +4506,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10086974" y="6640573"/>
-          <a:ext cx="581026" cy="693677"/>
+          <a:off x="10020299" y="9326623"/>
+          <a:ext cx="657226" cy="807977"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4534,15 +4539,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4557,7 +4562,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10677525" y="7753350"/>
+          <a:off x="10668000" y="11296650"/>
           <a:ext cx="1343025" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4602,15 +4607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4628,8 +4633,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10086974" y="7334250"/>
-          <a:ext cx="590551" cy="752475"/>
+          <a:off x="10020299" y="10134600"/>
+          <a:ext cx="647701" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4661,15 +4666,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4684,7 +4689,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12820650" y="8191500"/>
+          <a:off x="12601575" y="10067925"/>
           <a:ext cx="1724024" cy="876299"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4733,15 +4738,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4758,9 +4763,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12020550" y="8086725"/>
-          <a:ext cx="800100" cy="542925"/>
+        <a:xfrm flipV="1">
+          <a:off x="12011025" y="10506075"/>
+          <a:ext cx="590550" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4791,10 +4796,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="903324" cy="781240"/>
     <xdr:sp macro="" textlink="">
@@ -4810,7 +4815,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15240000" y="7191375"/>
+          <a:off x="15039975" y="9629775"/>
           <a:ext cx="903324" cy="781240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4878,16 +4883,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152495</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4905,8 +4910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14544674" y="7581995"/>
-          <a:ext cx="695326" cy="1047655"/>
+          <a:off x="14325599" y="10020395"/>
+          <a:ext cx="714376" cy="485680"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -4935,6 +4940,802 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector: angular 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF3E877-6D3A-407F-A103-2E7FE5C773ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="4319588"/>
+          <a:ext cx="561975" cy="395287"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectángulo 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7770D6-B15C-4DD5-8876-BE6416A135BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="4381500"/>
+          <a:ext cx="1362075" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1"/>
+            <a:t>COLECCIÓN COMENTARIOS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Elipse 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25470296-D1B6-44C6-BFFF-716C07B1D0C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="4762500"/>
+          <a:ext cx="1724025" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1"/>
+            <a:t>DOCUMENTO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1" baseline="0"/>
+            <a:t> COMENTARIO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector: angular 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D335B06-31CE-4B8B-8341-3EE236156D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="3"/>
+          <a:endCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039600" y="4714875"/>
+          <a:ext cx="590550" cy="509588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1019174" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CuadroTexto 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08577CD-C527-4525-8179-3D90CC079FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15230476" y="4257675"/>
+          <a:ext cx="1019174" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> ID_USUARIO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- Titulo</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- Comentario</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Conector: angular 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE347E3F-3EFF-4224-BEB3-26DA0463E539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="6"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14354175" y="4648295"/>
+          <a:ext cx="876301" cy="576168"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectángulo 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7933ACA7-51A6-4E0E-9768-71A075F6737E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10687050" y="5591175"/>
+          <a:ext cx="1362075" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1"/>
+            <a:t>COLECCIÓN VALORACIONES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Conector: angular 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CB908BA-4C00-4EE6-8B04-A7D54DEA0F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="6"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="4319588"/>
+          <a:ext cx="571500" cy="1604962"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Elipse 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A8657E-7F67-4DB6-AE27-16C2911F3E6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12658725" y="5991225"/>
+          <a:ext cx="1724025" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1"/>
+            <a:t>DOCUMENTO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1200" b="1" baseline="0"/>
+            <a:t> VALORACION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Conector: angular 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A0DA91-F493-44B7-A756-E46CAF541A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="81" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12049125" y="5924550"/>
+          <a:ext cx="609600" cy="528638"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Conector: angular 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D544EB5F-76BD-4A2F-B18C-4A5135A391BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="6"/>
+          <a:endCxn id="89" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14382750" y="5657557"/>
+          <a:ext cx="866775" cy="795631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1019174" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="CuadroTexto 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934F65B5-F069-4B3E-9ACE-742B4CCD6664}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15249525" y="5353050"/>
+          <a:ext cx="1019174" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>- ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> ID_USUARIO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>- Valoración</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5237,8 +6038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626A7CEB-5A6B-4F5D-8C15-D5FE2AE22F64}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,8 +6053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91AFF25-409D-4D8A-8C73-349D64A8D86C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
